--- a/references/Log.xlsx
+++ b/references/Log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14840" windowHeight="16840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>simulate data with mn for random intercept and t3 for random error, called mn_t2_100.Rdata</t>
   </si>
@@ -36,18 +36,12 @@
     <t>the bias is ok but the density plot didn't work</t>
   </si>
   <si>
-    <t>simulate data withN(1, 4) for random intercept, MN for random slope and t3 for random error, called mn_t2_2re_30.Rdata</t>
-  </si>
-  <si>
     <t>adjust the model file v2 to a new version v3 to incoperate the random slope</t>
   </si>
   <si>
     <t>us DPM to model both random effects</t>
   </si>
   <si>
-    <t>simulate data withN(0, 4) for random intercept, MN for random slope and t3 for random error, called mn_t2_2re_30_new.Rdata</t>
-  </si>
-  <si>
     <t>x is also changed to have mean 0</t>
   </si>
   <si>
@@ -61,13 +55,108 @@
   </si>
   <si>
     <t>use model_v3 to fit the data</t>
+  </si>
+  <si>
+    <t>simulate data with N(1, 4) for random intercept, MN for random slope and t3 for random error, called mn_t2_2re_30.Rdata</t>
+  </si>
+  <si>
+    <t>two posterior data named are mn_t3_2re_10.Rdata and mn_t3_2re_new_10.Rdata</t>
+  </si>
+  <si>
+    <t>simulate data with N(0, 4) for random intercept, MN for random slope and t3 for random error, called mn_t2_2re_30_new.Rdata</t>
+  </si>
+  <si>
+    <t>use only the first 10 data sets</t>
+  </si>
+  <si>
+    <t>Get results from previous simulation studies (using v3 for two data sets simulated above )and plot the densities to check the fit of the predictions</t>
+  </si>
+  <si>
+    <t>create normal model file</t>
+  </si>
+  <si>
+    <r>
+      <t>Run simulation on the complete 30 data sets using</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CDPM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> prior for BLQMM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Run simulation on the complete 30 data sets using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>normal prior</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for BLQMM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">run </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>additional 20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and combine with the previous results, run only on new data</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,6 +216,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -170,10 +266,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -212,18 +314,24 @@
     <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -557,24 +665,24 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="66.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -590,7 +698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="45">
+    <row r="4" spans="1:3" ht="30">
       <c r="A4" s="10"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -621,16 +729,16 @@
     <row r="8" spans="1:3" ht="30">
       <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30">
       <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -639,76 +747,101 @@
     <row r="11" spans="1:3" ht="30">
       <c r="A11" s="10"/>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="10"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="10"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="A14" s="9">
+        <v>41884</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" ht="45">
       <c r="A15" s="10"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45">
       <c r="A16" s="10"/>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="10"/>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="10"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:3">
       <c r="A19" s="10"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:3">
       <c r="A20" s="10"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:3">
       <c r="A21" s="10"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:3">
       <c r="A22" s="10"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:3">
       <c r="A23" s="10"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:3">
       <c r="A24" s="10"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:3">
       <c r="A25" s="10"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:3">
       <c r="A26" s="10"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:3">
       <c r="A27" s="10"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:3">
       <c r="A28" s="10"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:3">
       <c r="A29" s="10"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:3">
       <c r="A30" s="10"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:3">
       <c r="A31" s="10"/>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:3">
       <c r="A32" s="10"/>
     </row>
   </sheetData>

--- a/references/Log.xlsx
+++ b/references/Log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14840" windowHeight="16840" tabRatio="500"/>
+    <workbookView xWindow="160" yWindow="0" windowWidth="14840" windowHeight="16840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>simulate data with mn for random intercept and t3 for random error, called mn_t2_100.Rdata</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Get results from previous simulation studies (using v3 for two data sets simulated above )and plot the densities to check the fit of the predictions</t>
-  </si>
-  <si>
-    <t>create normal model file</t>
   </si>
   <si>
     <r>
@@ -150,6 +147,18 @@
       </rPr>
       <t xml:space="preserve"> and combine with the previous results, run only on new data</t>
     </r>
+  </si>
+  <si>
+    <t>create normal model file ( took only around 14 mins to run)</t>
+  </si>
+  <si>
+    <t>Create 2 new data sets beta_t3_2re_30_new.Rdata and norm_t3_2re_30_new.Rdata to run more simulation studies</t>
+  </si>
+  <si>
+    <t>Create 3 new data sets using chisq3 as error and beta, mn, and normal as random slope</t>
+  </si>
+  <si>
+    <t>run BLQMM on above 5 datasets using CDPM prior for random slope</t>
   </si>
 </sst>
 </file>
@@ -266,10 +275,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -314,7 +325,7 @@
     <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -323,6 +334,7 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -332,6 +344,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -665,7 +678,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -784,29 +797,38 @@
     <row r="16" spans="1:3" ht="45">
       <c r="A16" s="10"/>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30">
       <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30">
       <c r="A18" s="10"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30">
       <c r="A19" s="10"/>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="10"/>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="10"/>

--- a/references/Log.xlsx
+++ b/references/Log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="0" windowWidth="14840" windowHeight="16840" tabRatio="500"/>
+    <workbookView xWindow="13500" yWindow="0" windowWidth="14840" windowHeight="16840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>simulate data with mn for random intercept and t3 for random error, called mn_t2_100.Rdata</t>
   </si>
@@ -159,6 +159,75 @@
   </si>
   <si>
     <t>run BLQMM on above 5 datasets using CDPM prior for random slope</t>
+  </si>
+  <si>
+    <t>beta(2, 5); N(0, 4)</t>
+  </si>
+  <si>
+    <t>draw density plots on above simulation results</t>
+  </si>
+  <si>
+    <t>run BLQMM on chisq3 data using normal prior</t>
+  </si>
+  <si>
+    <t>rerun BLQMM using CDPM for mn_chisq3 data for random slope</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>done, a little better than previous results</t>
+  </si>
+  <si>
+    <t>same result, not worth</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rerun beta data for random slope, save as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>beta_t3/chisq3_2re_30_DP2.Rdata</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">change the DP model for alpha to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dunif(0.3, 10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instead of dgamma(1,2) and rerun the mn data for random slope</t>
+    </r>
+  </si>
+  <si>
+    <t>done, got results</t>
+  </si>
+  <si>
+    <t>use the new prior for alpha as above</t>
   </si>
 </sst>
 </file>
@@ -275,10 +344,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -325,7 +396,7 @@
     <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -335,6 +406,7 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -345,6 +417,7 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -677,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -817,39 +890,82 @@
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="30">
       <c r="A19" s="10"/>
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="10"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="10"/>
+      <c r="A22" s="9">
+        <v>41885</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="10"/>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="10"/>
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="10"/>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30">
       <c r="A26" s="10"/>
+      <c r="B26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="10"/>
+      <c r="B27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="10"/>

--- a/references/Log.xlsx
+++ b/references/Log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13500" yWindow="0" windowWidth="14840" windowHeight="16840" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="14840" windowHeight="16840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>simulate data with mn for random intercept and t3 for random error, called mn_t2_100.Rdata</t>
   </si>
@@ -228,6 +228,96 @@
   </si>
   <si>
     <t>use the new prior for alpha as above</t>
+  </si>
+  <si>
+    <t>Got the results from the runs on previous day</t>
+  </si>
+  <si>
+    <t>the density plots shows CDPM should be better but the SSD calculation didn't think so!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">revise the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SSD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> funciton and calculate SSD, but CDPM prior doesn't outperform normal prior at all</t>
+    </r>
+  </si>
+  <si>
+    <t>reduce the truncation paramter from 200 to 50</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rerum </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_t3/chisq3 data again</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rerun </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>beta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_t3/chisq data again</t>
+    </r>
+  </si>
+  <si>
+    <t>work on real data, no time on projects</t>
   </si>
 </sst>
 </file>
@@ -344,10 +434,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -396,7 +494,7 @@
     <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -407,6 +505,10 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -418,6 +520,10 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -748,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -971,16 +1077,55 @@
       <c r="A28" s="10"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="10"/>
+      <c r="A29" s="9">
+        <v>41886</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="10"/>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="B30" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="45">
       <c r="A31" s="10"/>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="B31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30">
       <c r="A32" s="10"/>
+      <c r="B32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30">
+      <c r="B33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="9">
+        <v>41886</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="1:3" ht="30">
+      <c r="C36" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/references/Log.xlsx
+++ b/references/Log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>simulate data with mn for random intercept and t3 for random error, called mn_t2_100.Rdata</t>
   </si>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">rerum </t>
+      <t xml:space="preserve">rerun </t>
     </r>
     <r>
       <rPr>
@@ -277,6 +277,38 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>beta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_t3/chisq data again</t>
+    </r>
+  </si>
+  <si>
+    <t>work on real data, no time on projects</t>
+  </si>
+  <si>
+    <t>after discussion, decided to use DPM instead of CDPM for random effects to avoid the "shift" problem</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">rerun </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>mn</t>
     </r>
     <r>
@@ -292,7 +324,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">rerun </t>
+      <t>run first on beta/mn_t3 data, save as</t>
     </r>
     <r>
       <rPr>
@@ -303,21 +335,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>beta</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_t3/chisq data again</t>
-    </r>
-  </si>
-  <si>
-    <t>work on real data, no time on projects</t>
+      <t xml:space="preserve"> beta_t3_2re_30_new_NCDP2</t>
+    </r>
+  </si>
+  <si>
+    <t>plot the results from 09/26 simulations, but the densities don't catch the shape of the true random effects</t>
+  </si>
+  <si>
+    <t>why?</t>
+  </si>
+  <si>
+    <t>Try to change the priors in model 4 file and rerun the simulation using mn_t3 data</t>
+  </si>
+  <si>
+    <t>change the prior of the variance in base distribuiton</t>
   </si>
 </sst>
 </file>
@@ -434,10 +465,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -494,7 +529,7 @@
     <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -509,6 +544,8 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -524,6 +561,8 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -854,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1101,7 +1140,7 @@
     <row r="32" spans="1:3" ht="30">
       <c r="A32" s="10"/>
       <c r="B32" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>38</v>
@@ -1109,7 +1148,7 @@
     </row>
     <row r="33" spans="1:3" ht="30">
       <c r="B33" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>38</v>
@@ -1124,7 +1163,45 @@
     </row>
     <row r="36" spans="1:3" ht="30">
       <c r="C36" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="9">
+        <v>41908</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="1:3" ht="30">
+      <c r="B39" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="9">
+        <v>41911</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" spans="1:3" ht="30">
+      <c r="B42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30">
+      <c r="B43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/references/Log.xlsx
+++ b/references/Log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="14840" windowHeight="16840" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="15180" windowHeight="16840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>simulate data with mn for random intercept and t3 for random error, called mn_t2_100.Rdata</t>
   </si>
@@ -349,6 +349,36 @@
   </si>
   <si>
     <t>change the prior of the variance in base distribuiton</t>
+  </si>
+  <si>
+    <t>check if DPM is working under LMM</t>
+  </si>
+  <si>
+    <t>The above change didn't work; DPM prior dosen't work for BLQMM</t>
+  </si>
+  <si>
+    <t>not really, try again tomorrow</t>
+  </si>
+  <si>
+    <t>The plot of random slope (mn) simulation from 30 datasets using DPM for LMM dosen't look as good as before. Probably because the data have intercept (beta_0), so I create a new 30 dataset without intercept and the error follows standard normal distr. Try DPM on LMM again.</t>
+  </si>
+  <si>
+    <t>if works, this can only show that DPM is working for LMM with normal error and without intercept. But not for other error distrs. If works can also try to use DPM for BLQMM for the data without intercept.</t>
+  </si>
+  <si>
+    <t>Turns out not working</t>
+  </si>
+  <si>
+    <t>Try data set with only random intercept in LMM using DPM prior</t>
+  </si>
+  <si>
+    <t>working this way.  so the problem is can not estimate random slope</t>
+  </si>
+  <si>
+    <t>generate data for BLQMM, i.e. the error deviates from normal (t3, chisq3). But only random intercept and no fixed interept term</t>
+  </si>
+  <si>
+    <t>the prediction performance depends on quantile</t>
   </si>
 </sst>
 </file>
@@ -465,10 +495,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -529,7 +561,7 @@
     <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -546,6 +578,7 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -563,6 +596,7 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -893,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1204,6 +1238,55 @@
         <v>47</v>
       </c>
     </row>
+    <row r="44" spans="1:3">
+      <c r="B44" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="9">
+        <v>41912</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48" spans="1:3" ht="105">
+      <c r="B48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="C49" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="30">
+      <c r="B50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="30">
+      <c r="B51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/references/Log.xlsx
+++ b/references/Log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="15180" windowHeight="16840" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="15180" windowHeight="16840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>simulate data with mn for random intercept and t3 for random error, called mn_t2_100.Rdata</t>
   </si>
@@ -378,7 +378,13 @@
     <t>generate data for BLQMM, i.e. the error deviates from normal (t3, chisq3). But only random intercept and no fixed interept term</t>
   </si>
   <si>
-    <t>the prediction performance depends on quantile</t>
+    <t>did plotting, the prediction performance depends on quantile for both data</t>
+  </si>
+  <si>
+    <t>update all the model files and r code in dropbox, then github</t>
+  </si>
+  <si>
+    <t>rerun the BLQMM model using data have only re_int using K=200</t>
   </si>
 </sst>
 </file>
@@ -495,10 +501,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -561,7 +569,7 @@
     <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -579,6 +587,7 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -597,6 +606,7 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -927,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1266,12 +1276,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="1:3">
       <c r="C49" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="2:3" ht="30">
+    <row r="50" spans="1:3" ht="30">
       <c r="B50" s="2" t="s">
         <v>54</v>
       </c>
@@ -1279,12 +1289,29 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="30">
+    <row r="51" spans="1:3" ht="45">
       <c r="B51" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="9">
+        <v>41913</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="B54" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/references/Log.xlsx
+++ b/references/Log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="15180" windowHeight="16840" tabRatio="500"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="15120" windowHeight="16940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>simulate data with mn for random intercept and t3 for random error, called mn_t2_100.Rdata</t>
   </si>
@@ -385,6 +385,21 @@
   </si>
   <si>
     <t>rerun the BLQMM model using data have only re_int using K=200</t>
+  </si>
+  <si>
+    <t>The results are similar to using K=100</t>
+  </si>
+  <si>
+    <t>Double check LMM using DPM using re_int, using K=200</t>
+  </si>
+  <si>
+    <t>the plot doesn't look as good as before. Why?</t>
+  </si>
+  <si>
+    <t>rerun LMM using DPM using re_int, using K=200</t>
+  </si>
+  <si>
+    <t>plot is just ok not as good as before</t>
   </si>
 </sst>
 </file>
@@ -501,10 +516,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -569,7 +588,7 @@
     <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -588,6 +607,8 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -607,11 +628,21 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -937,13 +968,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="66.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.33203125" style="1" customWidth="1"/>
@@ -1309,9 +1340,42 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" ht="30">
       <c r="B55" s="2" t="s">
         <v>59</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="9">
+        <v>41914</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="8"/>
+    </row>
+    <row r="58" spans="1:3" ht="30">
+      <c r="B58" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="9">
+        <v>41914</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="8"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="B61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
